--- a/Removal_Addition/Removal_Addition.xlsx
+++ b/Removal_Addition/Removal_Addition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCALE-6.3.b16\docs\triton-msr\Removal_Addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E923DEF-F804-4391-98DF-636E1A0A6124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A335B4-71A3-458B-8448-44B4BF3BEE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="288" yWindow="936" windowWidth="17280" windowHeight="8928" activeTab="1" xr2:uid="{E1D55926-F2BA-412D-A60F-83A5B966A715}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1D55926-F2BA-412D-A60F-83A5B966A715}"/>
   </bookViews>
   <sheets>
     <sheet name="Removal" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>kg/s added</t>
   </si>
@@ -77,14 +77,26 @@
   <si>
     <t>s to add 0.2 * 10^24 at =</t>
   </si>
+  <si>
+    <t>Factor is fraction/second removed</t>
+  </si>
+  <si>
+    <t>Factor*1e24 is atoms/MTIHM added</t>
+  </si>
+  <si>
+    <t>Addition must be linear</t>
+  </si>
+  <si>
+    <t>Removal must be exponential</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,16 +130,16 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1426,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0234C8C-57D7-40B5-8790-AD297A6104F8}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,6 +1629,16 @@
         <v>27.322938030282</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1627,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10D22EC-9DD6-47C0-95C2-A0D4C3767F81}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,26 +1669,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>0.1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>0.1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="J1" s="5">
+      <c r="F1" s="4"/>
+      <c r="J1" s="4">
         <v>0.2</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1699,10 +1721,10 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1722,10 +1744,10 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4254.5240492078201</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1">
@@ -1737,10 +1759,10 @@
       <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>4254.5240492078201</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1761,14 +1783,14 @@
         <f>(E4-E3)/(D4-D3)</f>
         <v>3.9029960038655359E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>4314.3039328985096</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <f>(G4-G3)*6.022E+23/(D4-D3)</f>
         <v>9.9997655459256672E+22</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1">
         <v>360.00290000000001</v>
       </c>
@@ -1779,11 +1801,11 @@
         <f>(K4-K3)/(J4-J3)</f>
         <v>7.8059920077282921E-2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>4374.08381658913</v>
       </c>
-      <c r="N4" s="9">
-        <f>(M4-M3)*6.022E+23/(J4-J3)</f>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:N13" si="0">(M4-M3)*6.022E+23/(J4-J3)</f>
         <v>1.9999531091839772E+23</v>
       </c>
     </row>
@@ -1801,17 +1823,17 @@
         <v>1028.1018506354201</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F13" si="0">(E5-E4)/(D5-D4)</f>
+        <f t="shared" ref="F5:F13" si="1">(E5-E4)/(D5-D4)</f>
         <v>3.9029970880198807E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>4374.0838165891901</v>
       </c>
-      <c r="H5" s="9">
-        <f t="shared" ref="H5:H13" si="1">(G5-G4)*6.022E+23/(D5-D4)</f>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H13" si="2">(G5-G4)*6.022E+23/(D5-D4)</f>
         <v>9.9997683236151933E+22</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1">
         <v>720.00570000000005</v>
       </c>
@@ -1819,14 +1841,14 @@
         <v>1056.2036482370199</v>
       </c>
       <c r="L5" s="2">
-        <f t="shared" ref="L5:L13" si="2">(K5-K4)/(J5-J4)</f>
+        <f t="shared" ref="L5:L13" si="3">(K5-K4)/(J5-J4)</f>
         <v>7.805994176045257E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>4493.64358397044</v>
       </c>
-      <c r="N5" s="9">
-        <f>(M5-M4)*6.022E+23/(J5-J4)</f>
+      <c r="N5" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999536647221864E+23</v>
       </c>
     </row>
@@ -1844,17 +1866,17 @@
         <v>1042.1527494362199</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029916672429991E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>4433.8637002798896</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" si="1"/>
+      <c r="H6" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997544351785837E+22</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1">
         <v>1080.009</v>
       </c>
@@ -1862,14 +1884,14 @@
         <v>1084.30544583861</v>
       </c>
       <c r="L6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059833344833449E-2</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>4613.2033513517599</v>
       </c>
-      <c r="N6" s="9">
-        <f>(M6-M5)*6.022E+23/(J6-J5)</f>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999508870343934E+23</v>
       </c>
     </row>
@@ -1887,17 +1909,17 @@
         <v>1056.2036482370199</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9030057613013383E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>4493.64358397058</v>
       </c>
-      <c r="H7" s="9">
-        <f t="shared" si="1"/>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997905452008011E+22</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1">
         <v>1440.011</v>
       </c>
@@ -1905,14 +1927,14 @@
         <v>1112.4072434402101</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8060115226026766E-2</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>4732.7631187330699</v>
       </c>
-      <c r="N7" s="9">
-        <f>(M7-M6)*6.022E+23/(J7-J6)</f>
+      <c r="N7" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999581090389734E+23</v>
       </c>
     </row>
@@ -1930,17 +1952,17 @@
         <v>1070.25454703782</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029949197090144E-2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>4553.4234676612696</v>
       </c>
-      <c r="H8" s="9">
-        <f t="shared" si="1"/>
+      <c r="H8" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997627682361663E+22</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1">
         <v>1800.0139999999999</v>
       </c>
@@ -1948,14 +1970,14 @@
         <v>1140.5090410417999</v>
       </c>
       <c r="L8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059898394151866E-2</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>4852.3228861143798</v>
       </c>
-      <c r="N8" s="9">
-        <f>(M8-M7)*6.022E+23/(J8-J7)</f>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
         <v>1.999952553646077E+23</v>
       </c>
     </row>
@@ -1973,17 +1995,17 @@
         <v>1084.30544583861</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029949197062361E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>4613.20335135196</v>
       </c>
-      <c r="H9" s="9">
-        <f t="shared" si="1"/>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997627682363189E+22</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1">
         <v>2160.0169999999998</v>
       </c>
@@ -1991,14 +2013,14 @@
         <v>1168.6108386434</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059898394180288E-2</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>4971.8826534956997</v>
       </c>
-      <c r="N9" s="9">
-        <f>(M9-M8)*6.022E+23/(J9-J8)</f>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999525536462444E+23</v>
       </c>
     </row>
@@ -2016,17 +2038,17 @@
         <v>1098.3563446394101</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029949197090123E-2</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>4672.9832350426504</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" si="1"/>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997627682363122E+22</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1">
         <v>2520.02</v>
       </c>
@@ -2034,14 +2056,14 @@
         <v>1196.7126362449901</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059898394152449E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>5091.4424208770197</v>
       </c>
-      <c r="N10" s="9">
-        <f>(M10-M9)*6.022E+23/(J10-J9)</f>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999525536462431E+23</v>
       </c>
     </row>
@@ -2059,17 +2081,17 @@
         <v>1112.4072434402101</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029949197090123E-2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>4732.76311873335</v>
       </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997627682378322E+22</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1">
         <v>2880.0230000000001</v>
       </c>
@@ -2077,14 +2099,14 @@
         <v>1224.81443384659</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059898394179608E-2</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>5211.0021882583396</v>
       </c>
-      <c r="N11" s="9">
-        <f>(M11-M10)*6.022E+23/(J11-J10)</f>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999525536462431E+23</v>
       </c>
     </row>
@@ -2102,17 +2124,17 @@
         <v>1126.4581422410099</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.902994919708954E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>4792.5430024240404</v>
       </c>
-      <c r="H12" s="9">
-        <f t="shared" si="1"/>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
         <v>9.999762768236324E+22</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1">
         <v>3240.0259999999998</v>
       </c>
@@ -2120,14 +2142,14 @@
         <v>1252.91623144818</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.805989839415256E-2</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>5330.5619556396596</v>
       </c>
-      <c r="N12" s="9">
-        <f>(M12-M11)*6.022E+23/(J12-J11)</f>
+      <c r="N12" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999525536462457E+23</v>
       </c>
     </row>
@@ -2145,17 +2167,17 @@
         <v>1140.5090410417999</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9029949197062333E-2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>4852.32288611474</v>
       </c>
-      <c r="H13" s="9">
-        <f t="shared" si="1"/>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
         <v>9.9997627682378322E+22</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1">
         <v>3600.029</v>
       </c>
@@ -2163,30 +2185,30 @@
         <v>1281.0180290497799</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.8059898394179608E-2</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>5450.1217230209904</v>
       </c>
-      <c r="N13" s="9">
-        <f>(M13-M12)*6.022E+23/(J13-J12)</f>
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
         <v>1.9999525536464256E+23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2">
         <f>D1/F13</f>
         <v>2.5621350285417925</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="2">
         <f>J1/L13</f>
         <v>2.5621350285399891</v>
@@ -2197,7 +2219,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f>D1/H13</f>
         <v>1.0000237237390194E-24</v>
       </c>
@@ -2205,81 +2227,115 @@
         <v>12</v>
       </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <f>J1*1E+24/N13</f>
         <v>1.0000237237395897</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f>D1*1E+24/H13</f>
         <v>1.0000237237390193</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="6"/>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
